--- a/산출물/체크케이스.xlsx
+++ b/산출물/체크케이스.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16488" windowHeight="4332"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2364" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="140">
   <si>
     <t>No</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>나의 책장 진입</t>
-  </si>
-  <si>
-    <t>즐겨찾기한 동화 목록, 커스텀 동화 목록 출력</t>
   </si>
   <si>
     <t>동화 클릭</t>
@@ -814,6 +811,18 @@
   </si>
   <si>
     <t>커스텀동화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 만든 동화 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐겨찾기한 동화 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탭이 바뀌며 커스텀 동화 목록 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1023,7 +1032,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1045,23 +1054,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1072,38 +1120,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1385,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1402,28 +1423,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
-        <v>120</v>
+      <c r="A2" s="21" t="s">
+        <v>119</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1442,7 +1463,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="4">
         <v>2</v>
       </c>
@@ -1460,8 +1481,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="s">
-        <v>93</v>
+      <c r="A4" s="21" t="s">
+        <v>92</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -1478,7 +1499,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="12"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1494,7 +1515,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="12"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1510,7 +1531,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="11"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -1526,8 +1547,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="10" t="s">
-        <v>94</v>
+      <c r="A8" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -1546,7 +1567,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="11"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="4">
         <v>2</v>
       </c>
@@ -1564,8 +1585,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="10" t="s">
-        <v>95</v>
+      <c r="A10" s="21" t="s">
+        <v>94</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -1584,7 +1605,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="12"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="1">
         <v>2</v>
       </c>
@@ -1602,7 +1623,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="12"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="1">
         <v>3</v>
       </c>
@@ -1620,7 +1641,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="12"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="1">
         <v>4</v>
       </c>
@@ -1638,7 +1659,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="11"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="4">
         <v>5</v>
       </c>
@@ -1656,8 +1677,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="10" t="s">
-        <v>122</v>
+      <c r="A15" s="21" t="s">
+        <v>121</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -1674,7 +1695,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="12"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -1690,7 +1711,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="11"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="4">
         <v>3</v>
       </c>
@@ -1706,8 +1727,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="10" t="s">
-        <v>123</v>
+      <c r="A18" s="21" t="s">
+        <v>122</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -1724,7 +1745,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="12"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="1">
         <v>2</v>
       </c>
@@ -1740,7 +1761,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="12"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="1">
         <v>3</v>
       </c>
@@ -1756,7 +1777,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="11"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="4">
         <v>4</v>
       </c>
@@ -1772,8 +1793,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="10" t="s">
-        <v>96</v>
+      <c r="A22" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -1786,11 +1807,11 @@
         <v>43</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="12"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="1">
         <v>2</v>
       </c>
@@ -1799,623 +1820,639 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="22"/>
+      <c r="B24" s="30">
+        <v>3</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="6" t="s">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="23"/>
+      <c r="B25" s="4">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="11"/>
-      <c r="B24" s="4">
-        <v>3</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="F25" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="5" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
+      <c r="F26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="12"/>
-      <c r="B26" s="1">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="22"/>
+      <c r="B27" s="1">
         <v>2</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="12"/>
-      <c r="B27" s="1">
-        <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="22"/>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="11"/>
-      <c r="B28" s="4">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="23"/>
+      <c r="B29" s="4">
         <v>4</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="2">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="2">
         <v>1</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="14"/>
-      <c r="B30" s="1">
+      <c r="F30" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="27"/>
+      <c r="B31" s="1">
         <v>2</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="14"/>
-      <c r="B31" s="1">
-        <v>3</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="27"/>
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="28"/>
+      <c r="B33" s="4">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F33" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="15"/>
-      <c r="B32" s="4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="27"/>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="27"/>
+      <c r="B36" s="1">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="27"/>
+      <c r="B37" s="1">
         <v>4</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="14"/>
-      <c r="B34" s="1">
-        <v>2</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="14"/>
-      <c r="B35" s="1">
-        <v>3</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="C37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="E37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="27"/>
+      <c r="B38" s="1">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="14"/>
-      <c r="B36" s="1">
-        <v>4</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="14"/>
-      <c r="B37" s="1">
-        <v>5</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="27"/>
+      <c r="B39" s="1">
+        <v>6</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="E39" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="14"/>
-      <c r="B38" s="1">
-        <v>6</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="F39" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="1" t="s">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="27"/>
+      <c r="B40" s="1">
+        <v>7</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="14"/>
-      <c r="B39" s="1">
-        <v>7</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="F40" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="14"/>
-      <c r="B40" s="1">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="27"/>
+      <c r="B41" s="1">
         <v>8</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="14"/>
-      <c r="B41" s="1">
-        <v>10</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="27"/>
+      <c r="B42" s="1">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="6" t="s">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="27"/>
+      <c r="B43" s="1">
+        <v>11</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="14"/>
-      <c r="B42" s="1">
-        <v>11</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="F43" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E42" s="1" t="s">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="28"/>
+      <c r="B44" s="4">
+        <v>12</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F42" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="15"/>
-      <c r="B43" s="4">
-        <v>12</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F43" s="5" t="s">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="2">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2" t="s">
+      <c r="F45" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="14"/>
-      <c r="B45" s="1">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="27"/>
+      <c r="B46" s="1">
         <v>2</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="14"/>
-      <c r="B46" s="1">
-        <v>3</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="27"/>
+      <c r="B47" s="1">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="27"/>
+      <c r="B48" s="24">
+        <v>4</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="E48" s="24" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="14"/>
-      <c r="B47" s="7">
+      <c r="F48" s="25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="27"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" s="24"/>
+      <c r="F49" s="25"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="28"/>
+      <c r="B50" s="4">
+        <v>5</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" s="27"/>
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" s="28"/>
+      <c r="B53" s="4">
+        <v>3</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="11">
+        <v>1</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="29"/>
+      <c r="B55" s="15">
+        <v>2</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="29"/>
+      <c r="B56" s="15">
+        <v>3</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="29"/>
+      <c r="B57" s="15">
         <v>4</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F47" s="8" t="s">
+      <c r="C57" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="29"/>
+      <c r="B58" s="15">
+        <v>5</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="14"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="15"/>
-      <c r="B49" s="4">
-        <v>5</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="55.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="B50" s="2">
-        <v>1</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="55.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="14"/>
-      <c r="B51" s="1">
-        <v>2</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="97.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="15"/>
-      <c r="B52" s="4">
-        <v>3</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="91.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="B53" s="18">
-        <v>1</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="87" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="17"/>
-      <c r="B54" s="21">
-        <v>2</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F54" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="17"/>
-      <c r="B55" s="21">
-        <v>3</v>
-      </c>
-      <c r="C55" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F55" s="23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="55.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="17"/>
-      <c r="B56" s="21">
-        <v>4</v>
-      </c>
-      <c r="C56" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="F56" s="23" t="s">
+      <c r="F58" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="17"/>
-      <c r="B57" s="21">
-        <v>5</v>
-      </c>
-      <c r="C57" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F57" s="23" t="s">
+    <row r="59" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="29"/>
+      <c r="B59" s="18">
+        <v>6</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="19" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="17"/>
-      <c r="B58" s="24">
-        <v>6</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" s="25" t="s">
+      <c r="E59" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="E58" s="25" t="s">
+      <c r="F59" s="20" t="s">
         <v>135</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A44"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="A51:A53"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="A33:A43"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B48:B49"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/산출물/체크케이스.xlsx
+++ b/산출물/체크케이스.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="143">
   <si>
     <t>No</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>전체 동화 목록 진입</t>
-  </si>
-  <si>
-    <t>서비스에 등록되어 있는 모든 동화 목록 출력</t>
   </si>
   <si>
     <t>이름순 또는 인기순 클릭</t>
@@ -818,11 +815,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>즐겨찾기한 동화 목록</t>
+    <t>사용자 : 로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>탭이 바뀌며 커스텀 동화 목록 출력</t>
+    <t>페이지 번호 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐겨찾기한 동화 목록 페이지 당 9개씩 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탭이 바뀌며 커스텀 동화 목록 페이지 당 9개씩 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스에 등록되어 있는 모든 동화 목록 페이지 당 9개씩 출력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1032,7 +1045,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1096,6 +1109,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1105,25 +1130,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1406,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1424,7 +1443,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1443,8 +1462,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
-        <v>119</v>
+      <c r="A2" s="25" t="s">
+        <v>118</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1463,7 +1482,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="23"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="4">
         <v>2</v>
       </c>
@@ -1481,8 +1500,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="21" t="s">
-        <v>92</v>
+      <c r="A4" s="25" t="s">
+        <v>91</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
@@ -1499,7 +1518,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="22"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1515,7 +1534,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="22"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1531,7 +1550,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="23"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -1547,8 +1566,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="21" t="s">
-        <v>93</v>
+      <c r="A8" s="25" t="s">
+        <v>92</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -1567,7 +1586,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="23"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="4">
         <v>2</v>
       </c>
@@ -1585,8 +1604,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="21" t="s">
-        <v>94</v>
+      <c r="A10" s="25" t="s">
+        <v>93</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -1605,7 +1624,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="22"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="1">
         <v>2</v>
       </c>
@@ -1623,7 +1642,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="22"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="1">
         <v>3</v>
       </c>
@@ -1641,7 +1660,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="22"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="1">
         <v>4</v>
       </c>
@@ -1659,7 +1678,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="23"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="4">
         <v>5</v>
       </c>
@@ -1677,8 +1696,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="21" t="s">
-        <v>121</v>
+      <c r="A15" s="25" t="s">
+        <v>120</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -1695,7 +1714,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="22"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -1711,7 +1730,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="23"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="4">
         <v>3</v>
       </c>
@@ -1727,8 +1746,8 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="21" t="s">
-        <v>122</v>
+      <c r="A18" s="25" t="s">
+        <v>121</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -1745,7 +1764,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="22"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="1">
         <v>2</v>
       </c>
@@ -1761,7 +1780,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="22"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="1">
         <v>3</v>
       </c>
@@ -1777,7 +1796,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="23"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="4">
         <v>4</v>
       </c>
@@ -1793,8 +1812,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="21" t="s">
-        <v>95</v>
+      <c r="A22" s="25" t="s">
+        <v>94</v>
       </c>
       <c r="B22" s="2">
         <v>1</v>
@@ -1807,11 +1826,11 @@
         <v>43</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="22"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="1">
         <v>2</v>
       </c>
@@ -1820,639 +1839,671 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="26"/>
+      <c r="B24" s="21">
+        <v>3</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="22"/>
-      <c r="B24" s="30">
-        <v>3</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="26"/>
+      <c r="B25" s="21">
+        <v>4</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="23"/>
-      <c r="B25" s="4">
-        <v>4</v>
-      </c>
-      <c r="C25" s="4" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="27"/>
+      <c r="B26" s="21">
+        <v>5</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="2">
         <v>1</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="22"/>
-      <c r="B27" s="1">
+      <c r="F27" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="26"/>
+      <c r="B28" s="1">
         <v>2</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="22"/>
-      <c r="B28" s="1">
-        <v>3</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="26"/>
+      <c r="B29" s="21">
+        <v>3</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="26"/>
+      <c r="B30" s="21">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="23"/>
-      <c r="B29" s="4">
-        <v>4</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="27"/>
-      <c r="B31" s="1">
+      <c r="B31" s="21">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="29"/>
+      <c r="B33" s="1">
         <v>2</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="29"/>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="30"/>
+      <c r="B35" s="4">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="27"/>
-      <c r="B32" s="1">
+      <c r="E36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="29"/>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="29"/>
+      <c r="B38" s="1">
         <v>3</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="28"/>
-      <c r="B33" s="4">
+      <c r="C38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="29"/>
+      <c r="B39" s="1">
         <v>4</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="2">
+      <c r="C39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="29"/>
+      <c r="B40" s="1">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="29"/>
+      <c r="B41" s="1">
+        <v>6</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="29"/>
+      <c r="B42" s="1">
+        <v>7</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="29"/>
+      <c r="B43" s="1">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="29"/>
+      <c r="B44" s="1">
+        <v>10</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="29"/>
+      <c r="B45" s="1">
+        <v>11</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="30"/>
+      <c r="B46" s="4">
+        <v>12</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47" s="2">
         <v>1</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="27"/>
-      <c r="B35" s="1">
+      <c r="C47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="29"/>
+      <c r="B48" s="1">
         <v>2</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="27"/>
-      <c r="B36" s="1">
+      <c r="C48" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="29"/>
+      <c r="B49" s="1">
         <v>3</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="27"/>
-      <c r="B37" s="1">
+      <c r="C49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="29"/>
+      <c r="B50" s="31">
         <v>4</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="27"/>
-      <c r="B38" s="1">
+      <c r="C50" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" s="29"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="31"/>
+      <c r="F51" s="32"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" s="30"/>
+      <c r="B52" s="4">
         <v>5</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="27"/>
-      <c r="B39" s="1">
-        <v>6</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" s="1" t="s">
+      <c r="C52" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" s="29"/>
+      <c r="B54" s="1">
+        <v>2</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55" s="30"/>
+      <c r="B55" s="4">
+        <v>3</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" s="11">
+        <v>1</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="24"/>
+      <c r="B57" s="15">
+        <v>2</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F39" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="27"/>
-      <c r="B40" s="1">
-        <v>7</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="27"/>
-      <c r="B41" s="1">
-        <v>8</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="27"/>
-      <c r="B42" s="1">
-        <v>10</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="27"/>
-      <c r="B43" s="1">
-        <v>11</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="28"/>
-      <c r="B44" s="4">
-        <v>12</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="26" t="s">
+      <c r="F57" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="24"/>
+      <c r="B58" s="15">
+        <v>3</v>
+      </c>
+      <c r="C58" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="B45" s="2">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="27"/>
-      <c r="B46" s="1">
-        <v>2</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="27"/>
-      <c r="B47" s="1">
-        <v>3</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="27"/>
-      <c r="B48" s="24">
-        <v>4</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="27"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E49" s="24"/>
-      <c r="F49" s="25"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A50" s="28"/>
-      <c r="B50" s="4">
-        <v>5</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="B51" s="2">
-        <v>1</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" s="27"/>
-      <c r="B52" s="1">
-        <v>2</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" s="28"/>
-      <c r="B53" s="4">
-        <v>3</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="B54" s="11">
-        <v>1</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="29"/>
-      <c r="B55" s="15">
-        <v>2</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="29"/>
-      <c r="B56" s="15">
-        <v>3</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="29"/>
-      <c r="B57" s="15">
-        <v>4</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="29"/>
-      <c r="B58" s="15">
-        <v>5</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>84</v>
       </c>
       <c r="D58" s="16"/>
       <c r="E58" s="16" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="F58" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="24"/>
+      <c r="B59" s="15">
+        <v>4</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="24"/>
+      <c r="B60" s="15">
+        <v>5</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="24"/>
+      <c r="B61" s="18">
+        <v>6</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" s="19" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="29"/>
-      <c r="B59" s="18">
-        <v>6</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D59" s="19" t="s">
+      <c r="E61" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="F61" s="20" t="s">
         <v>134</v>
-      </c>
-      <c r="F59" s="20" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A44"/>
-    <mergeCell ref="A45:A50"/>
     <mergeCell ref="A18:A21"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="A53:A55"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B50:B51"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A46"/>
+    <mergeCell ref="A47:A52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/산출물/체크케이스.xlsx
+++ b/산출물/체크케이스.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Desktop\Tosi\S10P12B306\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -767,10 +767,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>등장인물과의 대화 - 커스텀 동화의 등장인물과는 대화하지 않습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>생성할 동화 정보 (주인공, 배경, 키워드) 입력</t>
   </si>
   <si>
@@ -805,10 +801,6 @@
   </si>
   <si>
     <t>저장 후 나의 책장으로 이동</t>
-  </si>
-  <si>
-    <t>커스텀동화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>내가 만든 동화 클릭</t>
@@ -836,6 +828,14 @@
   </si>
   <si>
     <t>서비스에 등록되어 있는 모든 동화 목록 페이지 당 9개씩 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나만의 동화 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등장인물과의 대화 - 나만의 동화 만들기의 등장인물과는 대화하지 않습니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1118,32 +1118,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1427,8 +1427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1462,7 +1462,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>118</v>
       </c>
       <c r="B2" s="2">
@@ -1482,7 +1482,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="27"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="4">
         <v>2</v>
       </c>
@@ -1500,7 +1500,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>91</v>
       </c>
       <c r="B4" s="2">
@@ -1518,7 +1518,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="26"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1534,7 +1534,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="26"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1550,7 +1550,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="27"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="4">
         <v>4</v>
       </c>
@@ -1566,7 +1566,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>92</v>
       </c>
       <c r="B8" s="2">
@@ -1586,7 +1586,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="27"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="4">
         <v>2</v>
       </c>
@@ -1604,7 +1604,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>93</v>
       </c>
       <c r="B10" s="2">
@@ -1624,7 +1624,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="26"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="1">
         <v>2</v>
       </c>
@@ -1642,7 +1642,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="26"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="1">
         <v>3</v>
       </c>
@@ -1660,7 +1660,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="26"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="1">
         <v>4</v>
       </c>
@@ -1678,7 +1678,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="27"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="4">
         <v>5</v>
       </c>
@@ -1696,7 +1696,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>120</v>
       </c>
       <c r="B15" s="2">
@@ -1714,7 +1714,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="26"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -1730,7 +1730,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="27"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="4">
         <v>3</v>
       </c>
@@ -1746,7 +1746,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="24" t="s">
         <v>121</v>
       </c>
       <c r="B18" s="2">
@@ -1764,7 +1764,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="26"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="1">
         <v>2</v>
       </c>
@@ -1780,7 +1780,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="26"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="1">
         <v>3</v>
       </c>
@@ -1796,7 +1796,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="27"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="4">
         <v>4</v>
       </c>
@@ -1812,7 +1812,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="24" t="s">
         <v>94</v>
       </c>
       <c r="B22" s="2">
@@ -1826,11 +1826,11 @@
         <v>43</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="26"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="1">
         <v>2</v>
       </c>
@@ -1839,30 +1839,30 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="26"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="21">
         <v>3</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="26"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="21">
         <v>4</v>
       </c>
@@ -1878,7 +1878,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="27"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="21">
         <v>5</v>
       </c>
@@ -1894,7 +1894,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="24" t="s">
         <v>95</v>
       </c>
       <c r="B27" s="2">
@@ -1908,11 +1908,11 @@
         <v>48</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="26"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="1">
         <v>2</v>
       </c>
@@ -1928,7 +1928,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="26"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="21">
         <v>3</v>
       </c>
@@ -1937,14 +1937,14 @@
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="26"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="21">
         <v>4</v>
       </c>
@@ -1960,7 +1960,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="27"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="21">
         <v>5</v>
       </c>
@@ -1976,7 +1976,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="29" t="s">
         <v>59</v>
       </c>
       <c r="B32" s="2">
@@ -1994,7 +1994,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="29"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="1">
         <v>2</v>
       </c>
@@ -2010,7 +2010,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="29"/>
+      <c r="A34" s="30"/>
       <c r="B34" s="1">
         <v>3</v>
       </c>
@@ -2026,7 +2026,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="30"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="4">
         <v>4</v>
       </c>
@@ -2042,7 +2042,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="29" t="s">
         <v>60</v>
       </c>
       <c r="B36" s="2">
@@ -2062,7 +2062,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="29"/>
+      <c r="A37" s="30"/>
       <c r="B37" s="1">
         <v>2</v>
       </c>
@@ -2080,7 +2080,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="29"/>
+      <c r="A38" s="30"/>
       <c r="B38" s="1">
         <v>3</v>
       </c>
@@ -2098,7 +2098,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="29"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="1">
         <v>4</v>
       </c>
@@ -2116,7 +2116,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="29"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="1">
         <v>5</v>
       </c>
@@ -2132,7 +2132,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="29"/>
+      <c r="A41" s="30"/>
       <c r="B41" s="1">
         <v>6</v>
       </c>
@@ -2150,7 +2150,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="29"/>
+      <c r="A42" s="30"/>
       <c r="B42" s="1">
         <v>7</v>
       </c>
@@ -2168,7 +2168,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="29"/>
+      <c r="A43" s="30"/>
       <c r="B43" s="1">
         <v>8</v>
       </c>
@@ -2184,7 +2184,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="29"/>
+      <c r="A44" s="30"/>
       <c r="B44" s="1">
         <v>10</v>
       </c>
@@ -2200,7 +2200,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="29"/>
+      <c r="A45" s="30"/>
       <c r="B45" s="1">
         <v>11</v>
       </c>
@@ -2218,7 +2218,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="30"/>
+      <c r="A46" s="31"/>
       <c r="B46" s="4">
         <v>12</v>
       </c>
@@ -2236,7 +2236,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="29" t="s">
         <v>82</v>
       </c>
       <c r="B47" s="2">
@@ -2254,7 +2254,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="29"/>
+      <c r="A48" s="30"/>
       <c r="B48" s="1">
         <v>2</v>
       </c>
@@ -2270,7 +2270,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="29"/>
+      <c r="A49" s="30"/>
       <c r="B49" s="1">
         <v>3</v>
       </c>
@@ -2286,35 +2286,35 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A50" s="29"/>
-      <c r="B50" s="31">
+      <c r="A50" s="30"/>
+      <c r="B50" s="27">
         <v>4</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="27" t="s">
         <v>96</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E50" s="31" t="s">
+      <c r="E50" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="F50" s="32" t="s">
+      <c r="F50" s="28" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51" s="29"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
       <c r="D51" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E51" s="31"/>
-      <c r="F51" s="32"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="28"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" s="30"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="4">
         <v>5</v>
       </c>
@@ -2330,8 +2330,8 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" s="28" t="s">
-        <v>122</v>
+      <c r="A53" s="29" t="s">
+        <v>142</v>
       </c>
       <c r="B53" s="2">
         <v>1</v>
@@ -2350,7 +2350,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A54" s="29"/>
+      <c r="A54" s="30"/>
       <c r="B54" s="1">
         <v>2</v>
       </c>
@@ -2366,7 +2366,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A55" s="30"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="4">
         <v>3</v>
       </c>
@@ -2382,8 +2382,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="24" t="s">
-        <v>135</v>
+      <c r="A56" s="32" t="s">
+        <v>141</v>
       </c>
       <c r="B56" s="11">
         <v>1</v>
@@ -2392,17 +2392,17 @@
         <v>83</v>
       </c>
       <c r="D56" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E56" s="12" t="s">
+      <c r="F56" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="F56" s="13" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="57" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="24"/>
+      <c r="A57" s="32"/>
       <c r="B57" s="15">
         <v>2</v>
       </c>
@@ -2410,17 +2410,17 @@
         <v>83</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>67</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="24"/>
+      <c r="A58" s="32"/>
       <c r="B58" s="15">
         <v>3</v>
       </c>
@@ -2432,11 +2432,11 @@
         <v>61</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="24"/>
+      <c r="A59" s="32"/>
       <c r="B59" s="15">
         <v>4</v>
       </c>
@@ -2445,14 +2445,14 @@
       </c>
       <c r="D59" s="16"/>
       <c r="E59" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F59" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="F59" s="17" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="60" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="24"/>
+      <c r="A60" s="32"/>
       <c r="B60" s="15">
         <v>5</v>
       </c>
@@ -2464,11 +2464,11 @@
         <v>80</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="24"/>
+      <c r="A61" s="32"/>
       <c r="B61" s="18">
         <v>6</v>
       </c>
@@ -2476,17 +2476,23 @@
         <v>83</v>
       </c>
       <c r="D61" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="E61" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="F61" s="20" t="s">
         <v>133</v>
-      </c>
-      <c r="F61" s="20" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A56:A61"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A46"/>
+    <mergeCell ref="A47:A52"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="E50:E51"/>
     <mergeCell ref="F50:F51"/>
@@ -2498,12 +2504,6 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A56:A61"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A46"/>
-    <mergeCell ref="A47:A52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
